--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -1,104 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A97B6-93B6-436E-9EFD-66636A97546C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="排产导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="导入模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>ZQL1695.A壳组件[HQ20705204002].进口泡棉KD.黑色.ZC组装.环保.(成品)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z6650S 前壳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注塑，打磨,喷涂，cnc,镭雕,组装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸：3.6X4.8mm，工作高度0.3mm，泡棉胶0.15mm，7级防水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC+20%GF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>外购件导入清单</t>
   </si>
   <si>
     <t>组件名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>零件名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>材料耗用工作中心</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>物料类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>材料名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>材料规格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工艺说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>制品量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>重量单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>基数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -109,33 +70,375 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -153,37 +456,328 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -441,98 +1035,95 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="30.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.5583333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.775" customWidth="1"/>
+    <col min="4" max="4" width="15.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="14.8833333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.775" customWidth="1"/>
+    <col min="7" max="7" width="36.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.775" customWidth="1"/>
+    <col min="10" max="10" width="10.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -1,28 +1,151 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47D320A-E09F-4594-A532-7991A739FE90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>外购件导入清单</t>
+  </si>
+  <si>
+    <t>id(不可编辑)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料耗用工作中心</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物料类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料规格</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
   </si>
   <si>
     <t>工艺说明</t>
@@ -37,117 +160,20 @@
     <t>基数</t>
   </si>
   <si>
-    <t>id(不可编辑)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>组件名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>零件名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>材料耗用工作中心</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>物料类型</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>材料名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>材料规格</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>采购说明</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -160,7 +186,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,28 +200,162 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,11 +363,10 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,8 +379,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -238,9 +589,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -248,30 +854,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -529,99 +1179,104 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.5545454545455" customWidth="1"/>
+    <col min="4" max="4" width="19.7818181818182" customWidth="1"/>
+    <col min="5" max="5" width="15.2181818181818" customWidth="1"/>
+    <col min="6" max="6" width="14.8909090909091" customWidth="1"/>
+    <col min="7" max="7" width="19.7818181818182" customWidth="1"/>
+    <col min="8" max="8" width="36.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="11.7818181818182" customWidth="1"/>
+    <col min="11" max="11" width="10.8909090909091" customWidth="1"/>
+    <col min="12" max="12" width="23.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:12">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>4</v>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5B3282-A9E7-4AFE-A420-0CF2C7A0F7FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FF7279-221D-488E-A46B-419A91668E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="1740" windowWidth="19596" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>外购件导入清单</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id(不可编辑)</t>
   </si>
@@ -33,8 +30,120 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料耗用工作中心</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物料类型</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>工艺说明</t>
+  </si>
+  <si>
+    <t>重量单位</t>
+  </si>
+  <si>
+    <t>采购说明</t>
+  </si>
+  <si>
+    <t>制品重</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料规格</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>材料名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水口重(g)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>零件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>组件名称</t>
     </r>
     <r>
@@ -43,142 +152,23 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>零件名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>材料耗用工作中心</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物料类型</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>材料名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <t>工艺说明</t>
-  </si>
-  <si>
-    <t>重量单位</t>
-  </si>
-  <si>
-    <t>基数</t>
-  </si>
-  <si>
-    <t>采购说明</t>
-  </si>
-  <si>
-    <t>制品重</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>材料规格</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>用量</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否代采</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>外购件导入模板</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,6 +189,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -206,6 +197,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -213,25 +205,14 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -242,11 +223,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -305,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -320,9 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,31 +577,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -636,49 +612,57 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>13</v>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -690,10 +674,12 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B1:O1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FF7279-221D-488E-A46B-419A91668E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3F473-877C-48F4-9B7E-0D4C90A810FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="1740" windowWidth="19596" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
@@ -580,7 +580,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3F473-877C-48F4-9B7E-0D4C90A810FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3E7B5-002E-499B-8AA0-8C0E4368C2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1740" yWindow="2844" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id(不可编辑)</t>
   </si>
@@ -74,16 +74,9 @@
     <t>工艺说明</t>
   </si>
   <si>
-    <t>重量单位</t>
-  </si>
-  <si>
     <t>采购说明</t>
   </si>
   <si>
-    <t>制品重</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>材料规格</t>
     </r>
@@ -118,14 +111,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>水口重(g)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>穴数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>零件名称</t>
     </r>
@@ -169,6 +154,14 @@
   </si>
   <si>
     <t>外购件导入模板</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用量单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单位</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:O1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -592,14 +585,14 @@
     <col min="8" max="8" width="19.77734375" customWidth="1"/>
     <col min="9" max="9" width="36.33203125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="14" width="10.88671875" customWidth="1"/>
-    <col min="15" max="15" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -612,10 +605,8 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,43 +617,37 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -674,12 +659,10 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B1:M1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new\huayu_mes\src\main\resources\static\excelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A3E7B5-002E-499B-8AA0-8C0E4368C2E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ADD7A2-16B9-4209-BE27-7485D137A359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1740" yWindow="2844" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -149,19 +149,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>用量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>外购件导入模板</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>用量单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>采购单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM用量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM用量单位</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -572,27 +572,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="3" max="6" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.75" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="36.375" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -606,7 +606,7 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,19 +635,19 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>

--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ADD7A2-16B9-4209-BE27-7485D137A359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161366C-F2FC-4F34-8FA8-8FDEFB5D671A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>是否代采</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>外购件导入模板</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>BOM用量单位</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否客户代采</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -635,13 +635,13 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>4</v>

--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\huayu_mes\src\main\resources\static\excelFile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161366C-F2FC-4F34-8FA8-8FDEFB5D671A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>外购件导入模板</t>
+  </si>
   <si>
     <t>id(不可编辑)</t>
   </si>
@@ -30,7 +27,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>材料耗用工作中心</t>
@@ -41,7 +37,6 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
@@ -53,7 +48,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>物料类型</t>
@@ -64,20 +58,85 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
   </si>
   <si>
-    <t>工艺说明</t>
-  </si>
-  <si>
-    <t>采购说明</t>
+    <t>是否客户代采</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零件名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>材料规格</t>
     </r>
     <r>
@@ -86,90 +145,41 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>材料名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>零件名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>组件名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>外购件导入模板</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>损耗分组</t>
+  </si>
+  <si>
+    <t>工艺说明</t>
+  </si>
+  <si>
+    <t>BOM用量</t>
+  </si>
+  <si>
+    <t>BOM用量单位</t>
   </si>
   <si>
     <t>采购单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM用量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM用量单位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否客户代采</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购说明</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -182,7 +192,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +199,6 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,32 +206,173 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,8 +385,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -273,9 +608,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -283,6 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -292,21 +872,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -564,108 +1185,114 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="7.75" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="36.375" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="23.5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="36.375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.75" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="20.45" customHeight="1" spans="2:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" ht="16.9" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+    <row r="3" spans="2:13">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="外购件清单" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>外购件导入模板</t>
   </si>
@@ -154,6 +154,9 @@
     <t>损耗分组</t>
   </si>
   <si>
+    <t>是否单件</t>
+  </si>
+  <si>
     <t>工艺说明</t>
   </si>
   <si>
@@ -174,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -196,13 +199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
@@ -214,6 +210,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -229,27 +240,89 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -265,62 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,29 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -387,6 +383,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,13 +419,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,151 +527,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +605,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -624,24 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -653,6 +640,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,17 +683,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -711,165 +707,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1191,10 +1184,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1204,15 +1197,15 @@
     <col min="3" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="16.375" customWidth="1"/>
-    <col min="10" max="10" width="36.375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="9" max="10" width="16.375" customWidth="1"/>
+    <col min="11" max="11" width="36.375" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.45" customHeight="1" spans="2:14">
+    <row r="1" ht="20.45" customHeight="1" spans="2:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,68 +1221,73 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" ht="16.9" customHeight="1" spans="1:14">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="16.9" customHeight="1" spans="1:15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
+    <row r="3" spans="2:14">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/static/excelFile/外购件清单模板.xlsx
+++ b/src/main/resources/static/excelFile/外购件清单模板.xlsx
@@ -64,9 +64,6 @@
     </r>
   </si>
   <si>
-    <t>是否客户代采</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -157,6 +154,9 @@
     <t>是否单件</t>
   </si>
   <si>
+    <t>模内注塑</t>
+  </si>
+  <si>
     <t>工艺说明</t>
   </si>
   <si>
@@ -177,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -210,9 +210,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,54 +245,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,18 +268,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +292,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -354,10 +324,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,7 +368,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,133 +383,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,48 +570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,15 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -646,10 +643,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -658,8 +653,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,24 +691,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,10 +716,10 @@
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,137 +728,137 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +870,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1184,20 +1193,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="7.75" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="10" width="16.375" customWidth="1"/>
+    <col min="3" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="10" width="16.375" customWidth="1"/>
     <col min="11" max="11" width="36.375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11.75" customWidth="1"/>
@@ -1205,7 +1214,7 @@
     <col min="15" max="15" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.45" customHeight="1" spans="2:15">
+    <row r="1" ht="20.45" customHeight="1" spans="2:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,6 +1231,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" ht="16.9" customHeight="1" spans="1:15">
       <c r="A2" t="s">
